--- a/WBS_PS_9월_백준.xlsx
+++ b/WBS_PS_9월_백준.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zlzzl\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AEC6BEF-844F-4680-BECF-6C75AB31A57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34380" yWindow="3705" windowWidth="23175" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34380" yWindow="3705" windowWidth="23175" windowHeight="15345"/>
   </bookViews>
   <sheets>
     <sheet name="HackkerRank" sheetId="16" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">HackkerRank!$A$2:$Z$24</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">HackkerRank!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="86">
   <si>
     <t>월</t>
   </si>
@@ -61,26 +60,326 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(자료구조 및 알고리즘 종류)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(난이도)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(문제 제목)</t>
+    <t>구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약수 구하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이진수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소, 최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지능형 기차 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피보나치 수 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일곱 난쟁이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대공약수와 최소공배수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N번째 큰 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소수 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉽게 푸는 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연산자 끼워넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괄호의 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빗물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완전탐색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가르침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티탭 스케줄링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투포인터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부분합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소비용 구하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 스패닝 트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부분 문자열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위상정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>줄 세우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수들의 합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사탕 게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동전 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동전 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단지번호붙이기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감소하는 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가르침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이프 옮기기 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS/BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS와 BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미로 탐색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식물 피하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이러스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A -&gt; B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨바꼭질 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨바꼭질 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨바꼭질 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이모티콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아기 상어2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴사 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="m&quot;/&quot;d;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,7 +1035,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -817,6 +1116,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -842,24 +1159,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1189,14 +1488,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C53168C-FA1F-456A-8F28-9FB17379F948}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="C4" sqref="C4:E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.125" style="2" hidden="1" customWidth="1"/>
@@ -1207,14 +1506,14 @@
     <col min="27" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:75" ht="19.5" customHeight="1">
+      <c r="A1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="19">
         <v>11</v>
       </c>
@@ -1279,12 +1578,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
+    <row r="2" spans="1:75" ht="19.5" customHeight="1">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="22" t="s">
         <v>0</v>
       </c>
@@ -1349,35 +1648,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:75" s="10" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="51"/>
-    </row>
-    <row r="4" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:75" s="10" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="42"/>
+    </row>
+    <row r="4" spans="1:75" ht="19.5" customHeight="1">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1415,16 +1714,22 @@
       <c r="Y4" s="35"/>
       <c r="Z4" s="32"/>
     </row>
-    <row r="5" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:75" ht="19.5" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="15"/>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="F5" s="24"/>
       <c r="G5" s="36"/>
       <c r="H5" s="4"/>
@@ -1447,16 +1752,22 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="25"/>
     </row>
-    <row r="6" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:75" ht="19.5" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="15"/>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="24"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1479,16 +1790,22 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="25"/>
     </row>
-    <row r="7" spans="1:75" s="13" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:75" s="13" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A7" s="11">
         <v>4</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="16"/>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="26"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -1560,16 +1877,22 @@
       <c r="BV7" s="2"/>
       <c r="BW7" s="2"/>
     </row>
-    <row r="8" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:75" ht="19.5" customHeight="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="17"/>
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" s="28"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1592,16 +1915,22 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="29"/>
     </row>
-    <row r="9" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:75" ht="19.5" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="15"/>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="F9" s="24"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1624,16 +1953,22 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="25"/>
     </row>
-    <row r="10" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:75" ht="19.5" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="15"/>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="F10" s="24"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1656,16 +1991,22 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="25"/>
     </row>
-    <row r="11" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:75" ht="19.5" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="18"/>
+      <c r="C11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="24"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1688,16 +2029,22 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="25"/>
     </row>
-    <row r="12" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:75" ht="19.5" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="15"/>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="F12" s="24"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1720,16 +2067,22 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="25"/>
     </row>
-    <row r="13" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:75" ht="19.5" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="15"/>
+      <c r="C13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="F13" s="24"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1752,16 +2105,22 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="25"/>
     </row>
-    <row r="14" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:75" ht="19.5" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="15"/>
+      <c r="C14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="F14" s="24"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1784,16 +2143,22 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="25"/>
     </row>
-    <row r="15" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:75" ht="19.5" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="15"/>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="F15" s="24"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1816,16 +2181,22 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="25"/>
     </row>
-    <row r="16" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:75" ht="19.5" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="15"/>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="F16" s="24"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1848,16 +2219,22 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="25"/>
     </row>
-    <row r="17" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:75" ht="19.5" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="15"/>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="F17" s="24"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1880,16 +2257,22 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="25"/>
     </row>
-    <row r="18" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:75" ht="19.5" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="18"/>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="F18" s="24"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1912,16 +2295,22 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="25"/>
     </row>
-    <row r="19" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:75" ht="19.5" customHeight="1">
       <c r="A19" s="1">
         <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="15"/>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="F19" s="24"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1944,16 +2333,22 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="25"/>
     </row>
-    <row r="20" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:75" ht="19.5" customHeight="1">
       <c r="A20" s="1">
         <v>20</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="18"/>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="F20" s="24"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1976,16 +2371,22 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="25"/>
     </row>
-    <row r="21" spans="1:75" s="13" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:75" s="13" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A21" s="11">
         <v>21</v>
       </c>
       <c r="B21" s="11">
         <v>2</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="16"/>
+      <c r="C21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="F21" s="26"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
@@ -2057,16 +2458,22 @@
       <c r="BV21" s="2"/>
       <c r="BW21" s="2"/>
     </row>
-    <row r="22" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:75" ht="19.5" customHeight="1">
       <c r="A22" s="6">
         <v>22</v>
       </c>
       <c r="B22" s="6">
         <v>3</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="17"/>
+      <c r="C22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="F22" s="31"/>
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
@@ -2089,16 +2496,22 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="29"/>
     </row>
-    <row r="23" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:75" ht="19.5" customHeight="1">
       <c r="A23" s="9">
         <v>23</v>
       </c>
       <c r="B23" s="9">
         <v>3</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="30"/>
+      <c r="C23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>52</v>
+      </c>
       <c r="F23" s="33"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -2121,48 +2534,60 @@
       <c r="Y23" s="8"/>
       <c r="Z23" s="34"/>
     </row>
-    <row r="24" spans="1:75" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:75" ht="19.5" customHeight="1" thickBot="1">
       <c r="A24" s="1">
         <v>24</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="46"/>
+      <c r="C24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="37"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="46"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="37"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="46"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="37"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
-      <c r="Z24" s="47"/>
-    </row>
-    <row r="25" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z24" s="38"/>
+    </row>
+    <row r="25" spans="1:75" ht="19.5" customHeight="1">
       <c r="A25" s="6">
         <v>25</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="17"/>
+      <c r="C25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="F25" s="31"/>
       <c r="G25" s="35"/>
       <c r="H25" s="35"/>
@@ -2185,16 +2610,22 @@
       <c r="Y25" s="35"/>
       <c r="Z25" s="32"/>
     </row>
-    <row r="26" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:75" ht="19.5" customHeight="1">
       <c r="A26" s="1">
         <v>26</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="15"/>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="F26" s="24"/>
       <c r="G26" s="36"/>
       <c r="H26" s="4"/>
@@ -2217,16 +2648,22 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="25"/>
     </row>
-    <row r="27" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:75" ht="19.5" customHeight="1">
       <c r="A27" s="1">
         <v>27</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="15"/>
+      <c r="C27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="F27" s="24"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -2249,16 +2686,22 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="25"/>
     </row>
-    <row r="28" spans="1:75" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:75" ht="19.5" customHeight="1" thickBot="1">
       <c r="A28" s="11">
         <v>28</v>
       </c>
       <c r="B28" s="11">
         <v>1</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="16"/>
+      <c r="C28" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="F28" s="26"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -2281,16 +2724,22 @@
       <c r="Y28" s="12"/>
       <c r="Z28" s="27"/>
     </row>
-    <row r="29" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:75" ht="19.5" customHeight="1">
       <c r="A29" s="6">
         <v>29</v>
       </c>
       <c r="B29" s="6">
         <v>2</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="17"/>
+      <c r="C29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="F29" s="28"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -2313,16 +2762,22 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="29"/>
     </row>
-    <row r="30" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:75" ht="19.5" customHeight="1">
       <c r="A30" s="1">
         <v>30</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="15"/>
+      <c r="C30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="F30" s="24"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -2345,16 +2800,22 @@
       <c r="Y30" s="4"/>
       <c r="Z30" s="25"/>
     </row>
-    <row r="31" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:75" ht="19.5" customHeight="1">
       <c r="A31" s="1">
         <v>31</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="15"/>
+      <c r="C31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="F31" s="24"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -2377,16 +2838,22 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="25"/>
     </row>
-    <row r="32" spans="1:75" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:75" ht="19.5" customHeight="1">
       <c r="A32" s="1">
         <v>32</v>
       </c>
       <c r="B32" s="1">
         <v>2</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="18"/>
+      <c r="C32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="F32" s="24"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -2409,16 +2876,22 @@
       <c r="Y32" s="4"/>
       <c r="Z32" s="25"/>
     </row>
-    <row r="33" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="19.5" customHeight="1">
       <c r="A33" s="1">
         <v>33</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="15"/>
+      <c r="C33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="F33" s="24"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -2441,16 +2914,22 @@
       <c r="Y33" s="4"/>
       <c r="Z33" s="25"/>
     </row>
-    <row r="34" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="19.5" customHeight="1">
       <c r="A34" s="1">
         <v>34</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="15"/>
+      <c r="C34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="F34" s="24"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -2473,16 +2952,22 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="25"/>
     </row>
-    <row r="35" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" ht="19.5" customHeight="1">
       <c r="A35" s="1">
         <v>35</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="15"/>
+      <c r="C35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="F35" s="24"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -2505,16 +2990,22 @@
       <c r="Y35" s="4"/>
       <c r="Z35" s="25"/>
     </row>
-    <row r="36" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" ht="19.5" customHeight="1">
       <c r="A36" s="1">
         <v>36</v>
       </c>
       <c r="B36" s="1">
         <v>2</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="15"/>
+      <c r="C36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="F36" s="24"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -2537,16 +3028,22 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="25"/>
     </row>
-    <row r="37" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" ht="19.5" customHeight="1">
       <c r="A37" s="1">
         <v>37</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="15"/>
+      <c r="C37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="F37" s="24"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -2569,16 +3066,22 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="25"/>
     </row>
-    <row r="38" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="19.5" customHeight="1">
       <c r="A38" s="1">
         <v>38</v>
       </c>
       <c r="B38" s="1">
         <v>2</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="15"/>
+      <c r="C38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="F38" s="24"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -2601,16 +3104,22 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="25"/>
     </row>
-    <row r="39" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="19.5" customHeight="1">
       <c r="A39" s="1">
         <v>39</v>
       </c>
       <c r="B39" s="1">
         <v>2</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="18"/>
+      <c r="C39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>78</v>
+      </c>
       <c r="F39" s="24"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -2633,16 +3142,22 @@
       <c r="Y39" s="4"/>
       <c r="Z39" s="25"/>
     </row>
-    <row r="40" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" ht="19.5" customHeight="1">
       <c r="A40" s="1">
         <v>40</v>
       </c>
       <c r="B40" s="1">
         <v>2</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="15"/>
+      <c r="C40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="F40" s="24"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -2665,16 +3180,22 @@
       <c r="Y40" s="4"/>
       <c r="Z40" s="25"/>
     </row>
-    <row r="41" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" ht="19.5" customHeight="1">
       <c r="A41" s="1">
         <v>41</v>
       </c>
       <c r="B41" s="1">
         <v>2</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="18"/>
+      <c r="C41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>80</v>
+      </c>
       <c r="F41" s="24"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -2697,16 +3218,22 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="25"/>
     </row>
-    <row r="42" spans="1:26" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" ht="19.5" customHeight="1" thickBot="1">
       <c r="A42" s="11">
         <v>42</v>
       </c>
       <c r="B42" s="11">
         <v>2</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="16"/>
+      <c r="C42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>81</v>
+      </c>
       <c r="F42" s="26"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -2729,16 +3256,22 @@
       <c r="Y42" s="12"/>
       <c r="Z42" s="27"/>
     </row>
-    <row r="43" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="19.5" customHeight="1">
       <c r="A43" s="6">
         <v>43</v>
       </c>
       <c r="B43" s="6">
         <v>3</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="17"/>
+      <c r="C43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="F43" s="31"/>
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
@@ -2761,16 +3294,22 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="29"/>
     </row>
-    <row r="44" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" ht="19.5" customHeight="1">
       <c r="A44" s="9">
         <v>44</v>
       </c>
       <c r="B44" s="9">
         <v>3</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="30"/>
+      <c r="C44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>84</v>
+      </c>
       <c r="F44" s="33"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -2793,37 +3332,43 @@
       <c r="Y44" s="8"/>
       <c r="Z44" s="34"/>
     </row>
-    <row r="45" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" ht="19.5" customHeight="1">
       <c r="A45" s="1">
         <v>45</v>
       </c>
       <c r="B45" s="1">
         <v>3</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="46"/>
+      <c r="C45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="37"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="46"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="37"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
-      <c r="S45" s="47"/>
-      <c r="T45" s="46"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="37"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
       <c r="W45" s="7"/>
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
-      <c r="Z45" s="47"/>
+      <c r="Z45" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2837,6 +3382,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100395E4E9901CE0A4FB1F7F039537EC89B" ma:contentTypeVersion="11" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="fdc675a347a3f3f7d31006d9db4124bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d89984b9-e5f9-4f2b-a205-1bf21644eb2d" xmlns:ns4="d8a91525-5868-44e6-8505-c5ad588c7607" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1dd39ddcc3172524dde425a28913d7db" ns3:_="" ns4:_="">
     <xsd:import namespace="d89984b9-e5f9-4f2b-a205-1bf21644eb2d"/>
@@ -3047,15 +3601,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3063,6 +3608,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C69E5186-98CE-442D-A501-A7C0606F9EEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C627DCE-A1A2-49D9-8426-D7B94B1A9F3F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3081,14 +3634,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C69E5186-98CE-442D-A501-A7C0606F9EEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B1403C6-E72C-404D-81C4-9224E5CBF7ED}">
   <ds:schemaRefs>
